--- a/data/trans_orig/P24D-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>77997</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65088</v>
+        <v>63988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94479</v>
+        <v>96192</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2458516169576613</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2051633998413402</v>
+        <v>0.2016960579128256</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2978047104316517</v>
+        <v>0.3032039450078515</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -765,19 +765,19 @@
         <v>28517</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19574</v>
+        <v>20134</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38926</v>
+        <v>38661</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1828336934239248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1254957013631957</v>
+        <v>0.1290841138466415</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2495644272220389</v>
+        <v>0.2478672839667459</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>107</v>
@@ -786,19 +786,19 @@
         <v>106514</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90015</v>
+        <v>90308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124710</v>
+        <v>124310</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2250809950754739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1902153247315502</v>
+        <v>0.1908344474254268</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2635331390467062</v>
+        <v>0.2626859047922314</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>239254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>222772</v>
+        <v>221059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>252163</v>
+        <v>253263</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7541483830423387</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7021952895683482</v>
+        <v>0.6967960549921492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7948366001586596</v>
+        <v>0.7983039420871746</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -836,19 +836,19 @@
         <v>127457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>117048</v>
+        <v>117313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>136400</v>
+        <v>135840</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8171663065760751</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.750435572777961</v>
+        <v>0.7521327160332542</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8745042986368042</v>
+        <v>0.8709158861533584</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>358</v>
@@ -857,19 +857,19 @@
         <v>366711</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>348515</v>
+        <v>348915</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>383210</v>
+        <v>382917</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7749190049245261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7364668609532937</v>
+        <v>0.7373140952077686</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8097846752684498</v>
+        <v>0.8091655525745731</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>126486</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>107011</v>
+        <v>107963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146932</v>
+        <v>145567</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3120714137131316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2640225838436012</v>
+        <v>0.266370877389273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3625157778073366</v>
+        <v>0.3591481471807401</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -982,19 +982,19 @@
         <v>94884</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79683</v>
+        <v>80086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>110422</v>
+        <v>111108</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4216313635050916</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3540805685898725</v>
+        <v>0.3558744209254123</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4906731385278421</v>
+        <v>0.4937218047685204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>205</v>
@@ -1003,19 +1003,19 @@
         <v>221370</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198554</v>
+        <v>197075</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>245986</v>
+        <v>246830</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3511852219076431</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3149896880135188</v>
+        <v>0.3126425181516418</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3902351454060571</v>
+        <v>0.391574971898647</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>278825</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>258379</v>
+        <v>259744</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>298300</v>
+        <v>297348</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6879285862868685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6374842221926634</v>
+        <v>0.6408518528192599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7359774161563989</v>
+        <v>0.7336291226107271</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>124</v>
@@ -1053,19 +1053,19 @@
         <v>130157</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>114619</v>
+        <v>113933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>145358</v>
+        <v>144955</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5783686364949083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5093268614721578</v>
+        <v>0.5062781952314795</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6459194314101274</v>
+        <v>0.6441255790745877</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>385</v>
@@ -1074,19 +1074,19 @@
         <v>408982</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>384366</v>
+        <v>383522</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>431798</v>
+        <v>433277</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6488147780923569</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6097648545939426</v>
+        <v>0.6084250281013526</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6850103119864811</v>
+        <v>0.6873574818483582</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>95453</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81152</v>
+        <v>79194</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111584</v>
+        <v>110669</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.375837525005687</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.319529050899323</v>
+        <v>0.3118164157537862</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4393498945962216</v>
+        <v>0.4357458427252953</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>68</v>
@@ -1199,19 +1199,19 @@
         <v>66107</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53501</v>
+        <v>53633</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78268</v>
+        <v>78390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3910127799234031</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3164519737959712</v>
+        <v>0.3172314898000739</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4629479914887806</v>
+        <v>0.4636661903524947</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>154</v>
@@ -1220,19 +1220,19 @@
         <v>161560</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140888</v>
+        <v>141821</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179788</v>
+        <v>180869</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.381902203924482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3330371805786884</v>
+        <v>0.3352426497326092</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4249912529596173</v>
+        <v>0.4275466669041179</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>158522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>142391</v>
+        <v>143306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172823</v>
+        <v>174781</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.624162474994313</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5606501054037786</v>
+        <v>0.5642541572747053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6804709491006772</v>
+        <v>0.6881835842462141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>107</v>
@@ -1270,19 +1270,19 @@
         <v>102958</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90797</v>
+        <v>90675</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>115564</v>
+        <v>115432</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6089872200765969</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5370520085112194</v>
+        <v>0.5363338096475053</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6835480262040289</v>
+        <v>0.6827685101999261</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>259</v>
@@ -1291,19 +1291,19 @@
         <v>261480</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>243252</v>
+        <v>242171</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>282152</v>
+        <v>281219</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.618097796075518</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5750087470403827</v>
+        <v>0.5724533330958821</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.666962819421312</v>
+        <v>0.6647573502673907</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>120612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104213</v>
+        <v>103694</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139391</v>
+        <v>139270</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2983307236290202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2577675643163528</v>
+        <v>0.2564825872652649</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3447798401557812</v>
+        <v>0.3444803005424002</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -1416,19 +1416,19 @@
         <v>108502</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91691</v>
+        <v>92268</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124809</v>
+        <v>126105</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.356450920968257</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3012253755493458</v>
+        <v>0.303120054117919</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4100247342776155</v>
+        <v>0.4142820231543698</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>230</v>
@@ -1437,19 +1437,19 @@
         <v>229114</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>205176</v>
+        <v>205004</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>252575</v>
+        <v>254539</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3232945088447337</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2895160337781022</v>
+        <v>0.2892743140454768</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3563988581884029</v>
+        <v>0.3591706215867143</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>283679</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>264900</v>
+        <v>265021</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>300078</v>
+        <v>300597</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7016692763709798</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6552201598442187</v>
+        <v>0.6555196994575997</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7422324356836471</v>
+        <v>0.7435174127347349</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>189</v>
@@ -1487,19 +1487,19 @@
         <v>195892</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>179585</v>
+        <v>178289</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212703</v>
+        <v>212126</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.643549079031743</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5899752657223845</v>
+        <v>0.5857179768456302</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6987746244506541</v>
+        <v>0.6968799458820814</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>484</v>
@@ -1508,19 +1508,19 @@
         <v>479571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>456110</v>
+        <v>454146</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>503509</v>
+        <v>503681</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6767054911552663</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6436011418115971</v>
+        <v>0.6408293784132857</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7104839662218978</v>
+        <v>0.7107256859545231</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>420548</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>386621</v>
+        <v>388755</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>452178</v>
+        <v>457470</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3045625170079075</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2799921690126399</v>
+        <v>0.2815375829657055</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3274687868622447</v>
+        <v>0.3313015520276268</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>289</v>
@@ -1633,19 +1633,19 @@
         <v>298010</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>271555</v>
+        <v>268865</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>324672</v>
+        <v>327039</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.348763877845962</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3178042204807369</v>
+        <v>0.3146560323284813</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3799666579407184</v>
+        <v>0.3827367057278952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>696</v>
@@ -1654,19 +1654,19 @@
         <v>718558</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>671490</v>
+        <v>675655</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>764122</v>
+        <v>762533</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3214590841093062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3004022731049635</v>
+        <v>0.3022655502971323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3418427170671687</v>
+        <v>0.3411321607454018</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>960280</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>928650</v>
+        <v>923358</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>994207</v>
+        <v>992073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6954374829920925</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6725312131377552</v>
+        <v>0.668698447972373</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.72000783098736</v>
+        <v>0.7184624170342944</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>548</v>
@@ -1704,19 +1704,19 @@
         <v>556464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>529802</v>
+        <v>527435</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>582919</v>
+        <v>585609</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.651236122154038</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6200333420592816</v>
+        <v>0.6172632942721048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6821957795192631</v>
+        <v>0.6853439676715187</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1486</v>
@@ -1725,19 +1725,19 @@
         <v>1516744</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1471180</v>
+        <v>1472769</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1563812</v>
+        <v>1559647</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6785409158906938</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6581572829328312</v>
+        <v>0.6588678392545981</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6995977268950364</v>
+        <v>0.6977344497028676</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>129695</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>112521</v>
+        <v>112920</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>145234</v>
+        <v>145680</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.481096540801267</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4173898724116172</v>
+        <v>0.41886859354012</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5387373938203486</v>
+        <v>0.5403898262198733</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -2090,19 +2090,19 @@
         <v>96087</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83847</v>
+        <v>81887</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>108771</v>
+        <v>108000</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5937139543505108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5180831890656599</v>
+        <v>0.5059764725826544</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6720896711783365</v>
+        <v>0.6673269499500185</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -2111,19 +2111,19 @@
         <v>225782</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>203870</v>
+        <v>202967</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>247266</v>
+        <v>246182</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5233428885566718</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.472551971242546</v>
+        <v>0.4704599614569434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5731401649516675</v>
+        <v>0.5706282450196876</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>139888</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>124349</v>
+        <v>123903</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>157062</v>
+        <v>156663</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.518903459198733</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4612626061796516</v>
+        <v>0.4596101737801269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5826101275883828</v>
+        <v>0.5811314064598806</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -2161,19 +2161,19 @@
         <v>65753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53069</v>
+        <v>53840</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77993</v>
+        <v>79953</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4062860456494893</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3279103288216635</v>
+        <v>0.3326730500499817</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4819168109343401</v>
+        <v>0.494023527417346</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>200</v>
@@ -2182,19 +2182,19 @@
         <v>205641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>184157</v>
+        <v>185241</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>227553</v>
+        <v>228456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4766571114433282</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4268598350483325</v>
+        <v>0.4293717549803128</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5274480287574541</v>
+        <v>0.5295400385430566</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>199759</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179123</v>
+        <v>177841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>219780</v>
+        <v>221748</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4926273156071506</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4417364434474658</v>
+        <v>0.43857387206581</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5420002712115145</v>
+        <v>0.5468529489183578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>139</v>
@@ -2307,19 +2307,19 @@
         <v>149733</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132939</v>
+        <v>132462</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>169267</v>
+        <v>168439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5157040774752831</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4578628033473526</v>
+        <v>0.4562183539379854</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5829824586336665</v>
+        <v>0.5801289961989865</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>315</v>
@@ -2328,19 +2328,19 @@
         <v>349493</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>320012</v>
+        <v>322986</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>377053</v>
+        <v>377919</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5022562847920012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4598885751903382</v>
+        <v>0.4641635777550752</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5418626778732311</v>
+        <v>0.5431066772462754</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>205739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>185718</v>
+        <v>183750</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>226375</v>
+        <v>227657</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5073726843928494</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4579997287884855</v>
+        <v>0.4531470510816425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5582635565525342</v>
+        <v>0.5614261279341903</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>126</v>
@@ -2378,19 +2378,19 @@
         <v>140614</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>121080</v>
+        <v>121908</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>157408</v>
+        <v>157885</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4842959225247169</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4170175413663335</v>
+        <v>0.4198710038010134</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5421371966526474</v>
+        <v>0.5437816460620145</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>321</v>
@@ -2399,19 +2399,19 @@
         <v>346353</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>318793</v>
+        <v>317927</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>375834</v>
+        <v>372860</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4977437152079987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4581373221267687</v>
+        <v>0.4568933227537246</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5401114248096617</v>
+        <v>0.5358364222449247</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>147978</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>129173</v>
+        <v>127993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>167254</v>
+        <v>166049</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4735716591649849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4133892272964447</v>
+        <v>0.4096113990635146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5352582365943325</v>
+        <v>0.5314019339266913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>100</v>
@@ -2524,19 +2524,19 @@
         <v>115953</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98487</v>
+        <v>99769</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131489</v>
+        <v>132749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5071939384326033</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4307932323497375</v>
+        <v>0.436402608835245</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5751484722213126</v>
+        <v>0.5806617438520747</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>232</v>
@@ -2545,19 +2545,19 @@
         <v>263932</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>238352</v>
+        <v>239244</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>287537</v>
+        <v>287310</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4877774716227498</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4405021272317228</v>
+        <v>0.4421515137929166</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5314017640215367</v>
+        <v>0.5309833800122574</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>164495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>145219</v>
+        <v>146424</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183300</v>
+        <v>184480</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5264283408350151</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4647417634056676</v>
+        <v>0.4685980660733086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5866107727035552</v>
+        <v>0.5903886009364854</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>105</v>
@@ -2595,19 +2595,19 @@
         <v>112664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>97128</v>
+        <v>95868</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>130130</v>
+        <v>128848</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4928060615673966</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4248515277786873</v>
+        <v>0.4193382561479253</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5692067676502626</v>
+        <v>0.5635973911647549</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>256</v>
@@ -2616,19 +2616,19 @@
         <v>277159</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>253554</v>
+        <v>253781</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>302739</v>
+        <v>301847</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5122225283772502</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4685982359784631</v>
+        <v>0.4690166199877425</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5594978727682769</v>
+        <v>0.5578484862070834</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>149161</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130545</v>
+        <v>130153</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>170773</v>
+        <v>168286</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4094036596139867</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3583085678602393</v>
+        <v>0.3572325645475334</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4687225906192175</v>
+        <v>0.4618967419557743</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -2741,19 +2741,19 @@
         <v>134384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117788</v>
+        <v>116748</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151334</v>
+        <v>151916</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4659822637091508</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4084334801960221</v>
+        <v>0.4048264675726975</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5247560605163458</v>
+        <v>0.5267737390622036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>275</v>
@@ -2762,19 +2762,19 @@
         <v>283545</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>257094</v>
+        <v>258090</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>310344</v>
+        <v>310698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4344013591498628</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3938773017602138</v>
+        <v>0.3954019526947318</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4754573589396755</v>
+        <v>0.476000078225391</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>215176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>193564</v>
+        <v>196051</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>233792</v>
+        <v>234184</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5905963403860133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5312774093807825</v>
+        <v>0.5381032580442257</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6416914321397607</v>
+        <v>0.6427674354524666</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>146</v>
@@ -2812,19 +2812,19 @@
         <v>154005</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137055</v>
+        <v>136473</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>170601</v>
+        <v>171641</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5340177362908491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4752439394836543</v>
+        <v>0.4732262609377964</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5915665198039779</v>
+        <v>0.5951735324273024</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>353</v>
@@ -2833,19 +2833,19 @@
         <v>369182</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342383</v>
+        <v>342029</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>395633</v>
+        <v>394637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5655986408501372</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5245426410603246</v>
+        <v>0.5239999217746089</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6061226982397862</v>
+        <v>0.6045980473052681</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>626595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>591586</v>
+        <v>588685</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>666421</v>
+        <v>668591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4634945261350615</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4375983314005255</v>
+        <v>0.4354526861293562</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4929542421415309</v>
+        <v>0.494559689594695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>455</v>
@@ -2958,19 +2958,19 @@
         <v>496158</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>464266</v>
+        <v>465947</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>529072</v>
+        <v>531977</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5119281014416561</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.479022985276682</v>
+        <v>0.480757613417101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.545888377354917</v>
+        <v>0.5488859933719186</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1030</v>
@@ -2979,19 +2979,19 @@
         <v>1122752</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1074246</v>
+        <v>1072021</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1167363</v>
+        <v>1174148</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4837184835017219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4628205325941617</v>
+        <v>0.4618616833192177</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5029384449379944</v>
+        <v>0.5058615954984572</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>725297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>685471</v>
+        <v>683301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>760306</v>
+        <v>763207</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5365054738649384</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5070457578584691</v>
+        <v>0.505440310405305</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5624016685994746</v>
+        <v>0.5645473138706431</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>438</v>
@@ -3029,19 +3029,19 @@
         <v>473036</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>440122</v>
+        <v>437217</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>504928</v>
+        <v>503247</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4880718985583439</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4541116226450831</v>
+        <v>0.4511140066280815</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5209770147233181</v>
+        <v>0.5192423865828995</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1130</v>
@@ -3050,19 +3050,19 @@
         <v>1198334</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1153723</v>
+        <v>1146938</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1246840</v>
+        <v>1249065</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5162815164982781</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4970615550620055</v>
+        <v>0.4941384045015428</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5371794674058382</v>
+        <v>0.5381383166807823</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>111458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>95902</v>
+        <v>94548</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128692</v>
+        <v>127380</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4448490936300863</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3827609635632507</v>
+        <v>0.3773588514053469</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.513634915552547</v>
+        <v>0.5083965018576632</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -3415,19 +3415,19 @@
         <v>67186</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54442</v>
+        <v>56262</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80860</v>
+        <v>81416</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3989482246736363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3232749997400891</v>
+        <v>0.3340814418965006</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4801384657123948</v>
+        <v>0.4834417905628172</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>174</v>
@@ -3436,19 +3436,19 @@
         <v>178644</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>158114</v>
+        <v>158701</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>200157</v>
+        <v>199041</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4263983684386221</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3773961304169693</v>
+        <v>0.3787972114659569</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4777464341249339</v>
+        <v>0.4750825347694628</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>139094</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121860</v>
+        <v>123172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154650</v>
+        <v>156004</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5551509063699137</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.486365084447453</v>
+        <v>0.4916034981423371</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6172390364367493</v>
+        <v>0.6226411485946531</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -3486,19 +3486,19 @@
         <v>101223</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>87549</v>
+        <v>86993</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113967</v>
+        <v>112147</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6010517753263637</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5198615342876054</v>
+        <v>0.5165582094371828</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.676725000259911</v>
+        <v>0.6659185581034994</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>231</v>
@@ -3507,19 +3507,19 @@
         <v>240317</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>218804</v>
+        <v>219920</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>260847</v>
+        <v>260260</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5736016315613779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5222535658750661</v>
+        <v>0.5249174652305368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6226038695830307</v>
+        <v>0.6212027885340432</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>159897</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>140651</v>
+        <v>138846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>178132</v>
+        <v>178315</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4776078850706892</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4201190490805493</v>
+        <v>0.414727044048288</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5320754864625374</v>
+        <v>0.5326194351467255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -3632,19 +3632,19 @@
         <v>143456</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126435</v>
+        <v>126621</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160298</v>
+        <v>159792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.529500008679997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4666734655345202</v>
+        <v>0.4673588423880979</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.591662042215921</v>
+        <v>0.5897966553122084</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>281</v>
@@ -3653,19 +3653,19 @@
         <v>303354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>278261</v>
+        <v>276840</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>329663</v>
+        <v>328716</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5008184903000114</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4593916634719685</v>
+        <v>0.4570463505970466</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5442529673224139</v>
+        <v>0.5426897907120504</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>174891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>156656</v>
+        <v>156473</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>194137</v>
+        <v>195942</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5223921149293108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4679245135374626</v>
+        <v>0.4673805648532745</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5798809509194509</v>
+        <v>0.585272955951712</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>123</v>
@@ -3703,19 +3703,19 @@
         <v>127472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>110630</v>
+        <v>111136</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>144493</v>
+        <v>144307</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.470499991320003</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4083379577840788</v>
+        <v>0.4102033446877917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5333265344654798</v>
+        <v>0.532641157611902</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>283</v>
@@ -3724,19 +3724,19 @@
         <v>302362</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>276053</v>
+        <v>277000</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>327455</v>
+        <v>328876</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4991815096999886</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4557470326775859</v>
+        <v>0.4573102092879497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5406083365280315</v>
+        <v>0.5429536494029532</v>
       </c>
     </row>
     <row r="9">
@@ -3828,7 +3828,7 @@
         <v>111353</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92021</v>
+        <v>93681</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>128732</v>
@@ -3837,10 +3837,10 @@
         <v>0.3603524677324905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2977945591395448</v>
+        <v>0.3031642051453686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4165947974766981</v>
+        <v>0.4165939040557366</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -3849,19 +3849,19 @@
         <v>72486</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58217</v>
+        <v>58260</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86691</v>
+        <v>87303</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3217935131962361</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2584459959668248</v>
+        <v>0.2586398728754912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3848522184872192</v>
+        <v>0.3875691960129639</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -3870,19 +3870,19 @@
         <v>183839</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161654</v>
+        <v>162031</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>206630</v>
+        <v>208435</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3440952759609051</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3025709750286769</v>
+        <v>0.3032765458618815</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3867541611809669</v>
+        <v>0.390132162782527</v>
       </c>
     </row>
     <row r="11">
@@ -3902,16 +3902,16 @@
         <v>180278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>216989</v>
+        <v>215329</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6396475322675096</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.583405202523302</v>
+        <v>0.5834060959442633</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7022054408604552</v>
+        <v>0.6968357948546314</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -3920,19 +3920,19 @@
         <v>152771</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>138566</v>
+        <v>137954</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167040</v>
+        <v>166997</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6782064868037638</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6151477815127809</v>
+        <v>0.6124308039870364</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7415540040331754</v>
+        <v>0.7413601271245088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>324</v>
@@ -3941,19 +3941,19 @@
         <v>350428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>327637</v>
+        <v>325832</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>372613</v>
+        <v>372236</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6559047240390949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6132458388190326</v>
+        <v>0.609867837217473</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6974290249713228</v>
+        <v>0.6967234541381185</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>122412</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>106794</v>
+        <v>105039</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139616</v>
+        <v>138064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4344109285515713</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3789862722989421</v>
+        <v>0.3727602405281671</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4954651813527579</v>
+        <v>0.4899553372448067</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -4066,19 +4066,19 @@
         <v>126279</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110036</v>
+        <v>109625</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>141969</v>
+        <v>142240</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4906251365884072</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4275158693404238</v>
+        <v>0.4259199414874326</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.551583013516535</v>
+        <v>0.5526370010927666</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>240</v>
@@ -4087,19 +4087,19 @@
         <v>248691</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224844</v>
+        <v>224954</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>271973</v>
+        <v>271828</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4612458615208941</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4170167502849985</v>
+        <v>0.4172215520751696</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.504427577942045</v>
+        <v>0.5041587755874496</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>159376</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>142172</v>
+        <v>143724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>174994</v>
+        <v>176749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5655890714484287</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.504534818647242</v>
+        <v>0.5100446627551933</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6210137277010578</v>
+        <v>0.627239759471833</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>127</v>
@@ -4137,19 +4137,19 @@
         <v>131105</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>115415</v>
+        <v>115144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>147348</v>
+        <v>147759</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5093748634115928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.448416986483465</v>
+        <v>0.4473629989072332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.572484130659576</v>
+        <v>0.5740800585125674</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>284</v>
@@ -4158,19 +4158,19 @@
         <v>290481</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>267199</v>
+        <v>267344</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>314328</v>
+        <v>314218</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5387541384791058</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4955724220579553</v>
+        <v>0.4958412244125504</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5829832497150016</v>
+        <v>0.5827784479248305</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>505119</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>470059</v>
+        <v>471222</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>540516</v>
+        <v>541371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4294729834921249</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3996632121177835</v>
+        <v>0.400652646948449</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4595690438990279</v>
+        <v>0.4602959068040458</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>395</v>
@@ -4283,19 +4283,19 @@
         <v>409409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>377391</v>
+        <v>378497</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>440186</v>
+        <v>439121</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.444054082612383</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4093270889620211</v>
+        <v>0.4105270849277842</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4774363628215558</v>
+        <v>0.4762806211480431</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>865</v>
@@ -4304,19 +4304,19 @@
         <v>914528</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>872795</v>
+        <v>869834</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>964423</v>
+        <v>962106</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4358803808928052</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4159899018562353</v>
+        <v>0.4145786846894868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4596614709656472</v>
+        <v>0.4585571734635802</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>671018</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>635621</v>
+        <v>634766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>706078</v>
+        <v>704915</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5705270165078751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5404309561009721</v>
+        <v>0.539704093195954</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6003367878822164</v>
+        <v>0.599347353051551</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>498</v>
@@ -4354,19 +4354,19 @@
         <v>512570</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>481793</v>
+        <v>482858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>544588</v>
+        <v>543482</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5559459173876169</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5225636371784441</v>
+        <v>0.5237193788519571</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5906729110379787</v>
+        <v>0.5894729150722159</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1122</v>
@@ -4375,19 +4375,19 @@
         <v>1183588</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1133693</v>
+        <v>1136010</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1225321</v>
+        <v>1228282</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5641196191071949</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5403385290343528</v>
+        <v>0.5414428265364197</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5840100981437647</v>
+        <v>0.5854213153105132</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>64207</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48885</v>
+        <v>50490</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>79672</v>
+        <v>80028</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3328315268928397</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2534043601831022</v>
+        <v>0.261725400240863</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4129943538840933</v>
+        <v>0.4148411179894174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -4740,19 +4740,19 @@
         <v>47725</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38535</v>
+        <v>37697</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57401</v>
+        <v>57823</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3674205072453054</v>
+        <v>0.3674205072453052</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2966663756682794</v>
+        <v>0.2902163755521943</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.441914932984201</v>
+        <v>0.4451604403253895</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -4761,19 +4761,19 @@
         <v>111932</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95223</v>
+        <v>94687</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>128609</v>
+        <v>129460</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3467496514359846</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2949861839979497</v>
+        <v>0.293325593627959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3984117971406179</v>
+        <v>0.4010489289453143</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>128705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113240</v>
+        <v>112884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144027</v>
+        <v>142422</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6671684731071603</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5870056461159069</v>
+        <v>0.5851588820105825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7465956398168985</v>
+        <v>0.7382745997591369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>116</v>
@@ -4811,19 +4811,19 @@
         <v>82167</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72491</v>
+        <v>72069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91357</v>
+        <v>92195</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6325794927546947</v>
+        <v>0.6325794927546946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5580850670157981</v>
+        <v>0.5548395596746106</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7033336243317203</v>
+        <v>0.7097836244478057</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>245</v>
@@ -4832,19 +4832,19 @@
         <v>210872</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>194195</v>
+        <v>193344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>227581</v>
+        <v>228117</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6532503485640153</v>
+        <v>0.6532503485640155</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6015882028593821</v>
+        <v>0.5989510710546855</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7050138160020502</v>
+        <v>0.7066744063720414</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>81336</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65190</v>
+        <v>66154</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101458</v>
+        <v>101038</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3201548195694375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2566017809006219</v>
+        <v>0.2603954539823762</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3993602236767253</v>
+        <v>0.3977077443450356</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -4957,19 +4957,19 @@
         <v>84965</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72106</v>
+        <v>71179</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98321</v>
+        <v>97290</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4361907541609663</v>
+        <v>0.4361907541609662</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3701747476758127</v>
+        <v>0.365417889428014</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5047592529949719</v>
+        <v>0.4994638217543738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>179</v>
@@ -4978,19 +4978,19 @@
         <v>166301</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>143142</v>
+        <v>146214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>189440</v>
+        <v>190077</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3705122293567261</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3189153154364192</v>
+        <v>0.3257596475429546</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4220652987696898</v>
+        <v>0.4234859815246442</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>172716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>152594</v>
+        <v>153014</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>188862</v>
+        <v>187898</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6798451804305626</v>
+        <v>0.6798451804305625</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6006397763232744</v>
+        <v>0.6022922556549641</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.743398219099378</v>
+        <v>0.7396045460176237</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>147</v>
@@ -5028,19 +5028,19 @@
         <v>109823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>96467</v>
+        <v>97498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>122682</v>
+        <v>123609</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5638092458390338</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.495240747005028</v>
+        <v>0.5005361782456262</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6298252523241873</v>
+        <v>0.634582110571986</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>304</v>
@@ -5049,19 +5049,19 @@
         <v>282539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>259400</v>
+        <v>258763</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>305698</v>
+        <v>302626</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6294877706432739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5779347012303101</v>
+        <v>0.5765140184753559</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6810846845635808</v>
+        <v>0.6742403524570452</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>80128</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63880</v>
+        <v>64611</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96394</v>
+        <v>97305</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3855323919297742</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3073566652505906</v>
+        <v>0.3108742712731747</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4637935154570048</v>
+        <v>0.4681749155329354</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -5174,19 +5174,19 @@
         <v>72358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61324</v>
+        <v>60149</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85806</v>
+        <v>83264</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4221462003720875</v>
+        <v>0.4221462003720874</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.35777639046695</v>
+        <v>0.3509202455542685</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5006063846218364</v>
+        <v>0.4857745057677798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -5195,19 +5195,19 @@
         <v>152486</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>130846</v>
+        <v>133894</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173377</v>
+        <v>173189</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4020805371674048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3450185229244105</v>
+        <v>0.3530563649812755</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4571670959417474</v>
+        <v>0.456669595702665</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>127710</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>111444</v>
+        <v>110533</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143958</v>
+        <v>143227</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6144676080702259</v>
+        <v>0.6144676080702257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5362064845429952</v>
+        <v>0.5318250844670647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6926433347494094</v>
+        <v>0.6891257287268256</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -5245,19 +5245,19 @@
         <v>99046</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85598</v>
+        <v>88140</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>110080</v>
+        <v>111255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5778537996279126</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4993936153781637</v>
+        <v>0.5142254942322201</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6422236095330501</v>
+        <v>0.6490797544457315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>213</v>
@@ -5266,19 +5266,19 @@
         <v>226757</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>205866</v>
+        <v>206054</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>248397</v>
+        <v>245349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5979194628325952</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5428329040582526</v>
+        <v>0.5433304042973338</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6549814770755892</v>
+        <v>0.6469436350187238</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>94160</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>78077</v>
+        <v>80451</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110746</v>
+        <v>110561</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3930570971922688</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3259216658638152</v>
+        <v>0.3358317279301554</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.462294655941404</v>
+        <v>0.4615187253567685</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -5391,19 +5391,19 @@
         <v>101984</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91091</v>
+        <v>88374</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116188</v>
+        <v>114953</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4978186435933256</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4446490818662723</v>
+        <v>0.4313837296039201</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5671542648929089</v>
+        <v>0.5611249517419594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>239</v>
@@ -5412,19 +5412,19 @@
         <v>196144</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>177374</v>
+        <v>175192</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>215659</v>
+        <v>215814</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4413483442589908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3991138980119874</v>
+        <v>0.3942048649177824</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4852610466572282</v>
+        <v>0.4856085893240477</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>145398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128812</v>
+        <v>128997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>161481</v>
+        <v>159107</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6069429028077313</v>
+        <v>0.6069429028077312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5377053440585962</v>
+        <v>0.5384812746432315</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6740783341361848</v>
+        <v>0.6641682720698447</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>140</v>
@@ -5462,19 +5462,19 @@
         <v>102877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>88673</v>
+        <v>89908</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>113770</v>
+        <v>116487</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5021813564066744</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4328457351070913</v>
+        <v>0.4388750482580404</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5553509181337279</v>
+        <v>0.5686162703960795</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>275</v>
@@ -5483,19 +5483,19 @@
         <v>248275</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>228760</v>
+        <v>228605</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>267045</v>
+        <v>269227</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5586516557410092</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5147389533427715</v>
+        <v>0.5143914106759523</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6008861019880126</v>
+        <v>0.6057951350822175</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>319831</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>286863</v>
+        <v>286271</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>352600</v>
+        <v>348104</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3576092723526599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3207465042591486</v>
+        <v>0.3200846263691415</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3942483251732706</v>
+        <v>0.3892210022409142</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>419</v>
@@ -5608,19 +5608,19 @@
         <v>307031</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>285206</v>
+        <v>281461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>331147</v>
+        <v>330202</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4380242229058431</v>
+        <v>0.438024222905843</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4068875612194174</v>
+        <v>0.4015457525343309</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4724288256389557</v>
+        <v>0.4710805821773825</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>714</v>
@@ -5629,19 +5629,19 @@
         <v>626863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>584155</v>
+        <v>590905</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>666824</v>
+        <v>668897</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3929419802230763</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3661708958803392</v>
+        <v>0.3704022424972979</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4179911993741403</v>
+        <v>0.419290997686679</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>574529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>541760</v>
+        <v>546256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>607497</v>
+        <v>608089</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6423907276473401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6057516748267295</v>
+        <v>0.610778997759086</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6792534957408516</v>
+        <v>0.6799153736308585</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>525</v>
@@ -5679,19 +5679,19 @@
         <v>393914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>369798</v>
+        <v>370743</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>415739</v>
+        <v>419484</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.561975777094157</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5275711743610434</v>
+        <v>0.5289194178226175</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.593112438780582</v>
+        <v>0.5984542474656689</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1037</v>
@@ -5700,19 +5700,19 @@
         <v>968443</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>928482</v>
+        <v>926409</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1011151</v>
+        <v>1004401</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6070580197769239</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5820088006258597</v>
+        <v>0.580709002313321</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6338291041196609</v>
+        <v>0.6295977575027022</v>
       </c>
     </row>
     <row r="18">
